--- a/larkspurKitchen.xlsx
+++ b/larkspurKitchen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02be13960f358456/personal/berlin/Move/larkspur/kitchen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawaiz\OneDrive\personal\berlin\Move\larkspur\kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="FC1353705C3AB0E5687E550D0BF739F0665DC466" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{FB866ED9-84BF-4A5C-9A86-AB7FAF4FFEAE}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="69728E6D5FD67544B7DFE5043570CF6C0A08F8EF" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{178DE9B6-4645-4391-8F88-595CCDFDC333}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" xr2:uid="{397518FA-63A9-4610-BF61-40D1279CE0BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{5A06B6D3-9B4A-4DE9-A3AB-D88114933AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,93 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>EXT. Price</t>
-  </si>
-  <si>
-    <t>Functoin</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>HFS5-4040-800</t>
-  </si>
-  <si>
-    <t>Counter Depth</t>
-  </si>
-  <si>
-    <t>HFS5-2040-500</t>
-  </si>
-  <si>
-    <t>Sink Stretcher</t>
-  </si>
-  <si>
-    <t>HFS5-2040-600</t>
-  </si>
-  <si>
-    <t>HFS5-2020-500</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>T-Nut - 100 pack</t>
-  </si>
-  <si>
-    <t>HNKK5-5</t>
-  </si>
-  <si>
-    <t>HBLFSNF5</t>
-  </si>
-  <si>
-    <t>Angle Brackets</t>
-  </si>
-  <si>
-    <t>HNTP5-5</t>
-  </si>
-  <si>
-    <t>Post assembly Nut</t>
-  </si>
-  <si>
-    <t>Oven Stretcher</t>
-  </si>
-  <si>
-    <t>HFS5-2040-560</t>
-  </si>
-  <si>
-    <t>HFS5-2040-300</t>
-  </si>
-  <si>
-    <t>Overhang</t>
-  </si>
-  <si>
-    <t>M5x10</t>
-  </si>
-  <si>
-    <t>Suppourt Bar</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/M5-M6-Stainless-Steel-Metric-Full-Thread-Hexagon-Socket-Cap-Head-Screws-Bolts/182093863816?hash=item2a65a3db88:m:mVLGJvPA-yIz7_HgzHPrsPA</t>
-  </si>
-  <si>
-    <t>Screws 100 pack</t>
-  </si>
-  <si>
-    <t>C-30-RK-3617</t>
-  </si>
-  <si>
-    <t>Rubber Feet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>lumberWidth</t>
+  </si>
+  <si>
+    <t>lumberDepth</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>counterHeight</t>
+  </si>
+  <si>
+    <t>counterThickness</t>
+  </si>
+  <si>
+    <t>frameHeight</t>
+  </si>
+  <si>
+    <t>counterDepth</t>
+  </si>
+  <si>
+    <t>frameOverhang</t>
   </si>
 </sst>
 </file>
@@ -119,16 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +93,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,268 +412,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C311DED9-D63A-4DCA-A361-65D261FB39C9}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C54716-D550-402B-9E96-64AE63F38646}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>820</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12.32</v>
-      </c>
-      <c r="E2" s="1">
-        <f>D2*C2</f>
-        <v>147.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6">
+        <f>B5+B4</f>
+        <v>858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7">
+        <v>635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.48</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.04</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>36.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.24</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>19.32</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10.72</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>10.72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
-        <f>SUM(E2:E16)</f>
-        <v>452.36</v>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>